--- a/GeneratedInvariants.xlsx
+++ b/GeneratedInvariants.xlsx
@@ -7074,4 +7074,28 @@
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
+</file>
+
+<file path=loop-invariant-gen-experiments/LICENSE.txt>Copyright (c) Microsoft Corporation.
+
+MIT License
+
+Permission is hereby granted, free of charge, to any person obtaining a copy
+of this software and associated documentation files (the "Software"), to deal
+in the Software without restriction, including without limitation the rights
+to use, copy, modify, merge, publish, distribute, sublicense, and/or sell
+copies of the Software, and to permit persons to whom the Software is
+furnished to do so, subject to the following conditions:
+
+The above copyright notice and this permission notice shall be included in all
+copies or substantial portions of the Software.
+
+THE SOFTWARE IS PROVIDED *AS IS*, WITHOUT WARRANTY OF ANY KIND, EXPRESS OR
+IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,
+FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE
+AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER
+LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM,
+OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE
+SOFTWARE.
+
 </file>